--- a/biology/Zoologie/Conus_oishii/Conus_oishii.xlsx
+++ b/biology/Zoologie/Conus_oishii/Conus_oishii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus oishii est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 20 mm et 44 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de Taiwan et Indonésie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente à Taiwan, en Indonésie et au Japon. Il s'agit d'une espèce de grande envergure avec un profil de profondeur large. Il n'y a pas de menaces majeures connues pour cette espèce. Cette espèce est classée dans la catégorie préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente à Taiwan, en Indonésie et au Japon. Il s'agit d'une espèce de grande envergure avec un profil de profondeur large. Il n'y a pas de menaces majeures connues pour cette espèce. Cette espèce est classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_oishii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_oishii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus oishii a été décrite pour la première fois en 1977 par le malacologiste japonais Tokio Shikama (d)[2] dans « Science Reports of the Yokohama National University, section II (Geology) »[3],[4].
-Synonymes
-Asprella oishii Shikama, 1977 · non accepté (combinaison originale)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus oishii a été décrite pour la première fois en 1977 par le malacologiste japonais Tokio Shikama (d) dans « Science Reports of the Yokohama National University, section II (Geology) »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_oishii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_oishii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Asprella oishii Shikama, 1977 · non accepté (combinaison originale)
 Conus (Phasmoconus) oishii (Shikama, 1977) · appellation alternative
 Graphiconus oishii (Shikama, 1977) · non accepté</t>
         </is>
